--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf13-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf13-Tnfrsf11b.xlsx
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.637903</v>
+        <v>1.096772333333333</v>
       </c>
       <c r="H2">
-        <v>1.913709</v>
+        <v>3.290317</v>
       </c>
       <c r="I2">
-        <v>0.1229013127714845</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="J2">
-        <v>0.1229013127714844</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1085253333333333</v>
+        <v>2.214957333333333</v>
       </c>
       <c r="N2">
-        <v>0.325576</v>
+        <v>6.644871999999999</v>
       </c>
       <c r="O2">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="P2">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="Q2">
-        <v>0.06922863570933334</v>
+        <v>2.429303922713777</v>
       </c>
       <c r="R2">
-        <v>0.6230577213840001</v>
+        <v>21.863735304424</v>
       </c>
       <c r="S2">
-        <v>0.005052212856414178</v>
+        <v>0.213805460933053</v>
       </c>
       <c r="T2">
-        <v>0.005052212856414178</v>
+        <v>0.213805460933053</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.637903</v>
+        <v>1.096772333333333</v>
       </c>
       <c r="H3">
-        <v>1.913709</v>
+        <v>3.290317</v>
       </c>
       <c r="I3">
-        <v>0.1229013127714845</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="J3">
-        <v>0.1229013127714844</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.214957333333333</v>
+        <v>0.274148</v>
       </c>
       <c r="N3">
-        <v>6.644871999999999</v>
+        <v>0.8224440000000001</v>
       </c>
       <c r="O3">
-        <v>0.8389949644181</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="P3">
-        <v>0.8389949644181001</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="Q3">
-        <v>1.412927927805333</v>
+        <v>0.3006779416386666</v>
       </c>
       <c r="R3">
-        <v>12.716351350248</v>
+        <v>2.706101474748</v>
       </c>
       <c r="S3">
-        <v>0.1031135825356494</v>
+        <v>0.02646296550356784</v>
       </c>
       <c r="T3">
-        <v>0.1031135825356494</v>
+        <v>0.02646296550356784</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.637903</v>
+        <v>1.096772333333333</v>
       </c>
       <c r="H4">
-        <v>1.913709</v>
+        <v>3.290317</v>
       </c>
       <c r="I4">
-        <v>0.1229013127714845</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="J4">
-        <v>0.1229013127714844</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.31653</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N4">
-        <v>0.9495899999999999</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O4">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696538</v>
       </c>
       <c r="P4">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696536</v>
       </c>
       <c r="Q4">
-        <v>0.20191543659</v>
+        <v>0.02670275040888889</v>
       </c>
       <c r="R4">
-        <v>1.81723892931</v>
+        <v>0.24032475368</v>
       </c>
       <c r="S4">
-        <v>0.0147355173794209</v>
+        <v>0.00235013569359202</v>
       </c>
       <c r="T4">
-        <v>0.0147355173794209</v>
+        <v>0.002350135693592019</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,40 +729,40 @@
         <v>0.510843</v>
       </c>
       <c r="I5">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="J5">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1085253333333333</v>
+        <v>2.214957333333333</v>
       </c>
       <c r="N5">
-        <v>0.325576</v>
+        <v>6.644871999999999</v>
       </c>
       <c r="O5">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="P5">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="Q5">
-        <v>0.01847980228533334</v>
+        <v>0.3771651496773333</v>
       </c>
       <c r="R5">
-        <v>0.166318220568</v>
+        <v>3.394486347096</v>
       </c>
       <c r="S5">
-        <v>0.001348631151449457</v>
+        <v>0.03319468096217586</v>
       </c>
       <c r="T5">
-        <v>0.001348631151449457</v>
+        <v>0.03319468096217586</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>0.510843</v>
       </c>
       <c r="I6">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="J6">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.214957333333333</v>
+        <v>0.274148</v>
       </c>
       <c r="N6">
-        <v>6.644871999999999</v>
+        <v>0.8224440000000001</v>
       </c>
       <c r="O6">
-        <v>0.8389949644181</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="P6">
-        <v>0.8389949644181001</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="Q6">
-        <v>0.3771651496773333</v>
+        <v>0.04668219558800001</v>
       </c>
       <c r="R6">
-        <v>3.394486347096</v>
+        <v>0.4201397602920001</v>
       </c>
       <c r="S6">
-        <v>0.02752500607106866</v>
+        <v>0.004108546588896787</v>
       </c>
       <c r="T6">
-        <v>0.02752500607106867</v>
+        <v>0.004108546588896787</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,40 +853,40 @@
         <v>0.510843</v>
       </c>
       <c r="I7">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="J7">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.31653</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N7">
-        <v>0.9495899999999999</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O7">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696538</v>
       </c>
       <c r="P7">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696536</v>
       </c>
       <c r="Q7">
-        <v>0.05389904493</v>
+        <v>0.004145774746666667</v>
       </c>
       <c r="R7">
-        <v>0.48509140437</v>
+        <v>0.03731197272</v>
       </c>
       <c r="S7">
-        <v>0.00393347990977495</v>
+        <v>0.0003648737699503204</v>
       </c>
       <c r="T7">
-        <v>0.00393347990977495</v>
+        <v>0.0003648737699503203</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,55 +900,55 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.975059</v>
+        <v>0.5018676666666667</v>
       </c>
       <c r="H8">
-        <v>2.925177</v>
+        <v>1.505603</v>
       </c>
       <c r="I8">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="J8">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1085253333333333</v>
+        <v>2.214957333333333</v>
       </c>
       <c r="N8">
-        <v>0.325576</v>
+        <v>6.644871999999999</v>
       </c>
       <c r="O8">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="P8">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="Q8">
-        <v>0.1058186029946667</v>
+        <v>1.111615468646222</v>
       </c>
       <c r="R8">
-        <v>0.9523674269520002</v>
+        <v>10.004539217816</v>
       </c>
       <c r="S8">
-        <v>0.007722499526671534</v>
+        <v>0.0978343859868783</v>
       </c>
       <c r="T8">
-        <v>0.007722499526671535</v>
+        <v>0.09783438598687827</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,25 +962,25 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.975059</v>
+        <v>0.5018676666666667</v>
       </c>
       <c r="H9">
-        <v>2.925177</v>
+        <v>1.505603</v>
       </c>
       <c r="I9">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="J9">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.214957333333333</v>
+        <v>0.274148</v>
       </c>
       <c r="N9">
-        <v>6.644871999999999</v>
+        <v>0.8224440000000001</v>
       </c>
       <c r="O9">
-        <v>0.8389949644181</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="P9">
-        <v>0.8389949644181001</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="Q9">
-        <v>2.159714082482666</v>
+        <v>0.1375860170813333</v>
       </c>
       <c r="R9">
-        <v>19.437426742344</v>
+        <v>1.238274153732</v>
       </c>
       <c r="S9">
-        <v>0.157613033131413</v>
+        <v>0.01210908257504315</v>
       </c>
       <c r="T9">
-        <v>0.157613033131413</v>
+        <v>0.01210908257504315</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,55 +1024,55 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.975059</v>
+        <v>0.5018676666666667</v>
       </c>
       <c r="H10">
-        <v>2.925177</v>
+        <v>1.505603</v>
       </c>
       <c r="I10">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="J10">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.31653</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N10">
-        <v>0.9495899999999999</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O10">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696538</v>
       </c>
       <c r="P10">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696536</v>
       </c>
       <c r="Q10">
-        <v>0.30863542527</v>
+        <v>0.01221880479111111</v>
       </c>
       <c r="R10">
-        <v>2.77771882743</v>
+        <v>0.10996924312</v>
       </c>
       <c r="S10">
-        <v>0.02252379882280027</v>
+        <v>0.001075389195229282</v>
       </c>
       <c r="T10">
-        <v>0.02252379882280027</v>
+        <v>0.001075389195229282</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.407124666666667</v>
+        <v>2.751641333333334</v>
       </c>
       <c r="H11">
-        <v>10.221374</v>
+        <v>8.254924000000001</v>
       </c>
       <c r="I11">
-        <v>0.6564322386153376</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="J11">
-        <v>0.6564322386153377</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1085253333333333</v>
+        <v>2.214957333333333</v>
       </c>
       <c r="N11">
-        <v>0.325576</v>
+        <v>6.644871999999999</v>
       </c>
       <c r="O11">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="P11">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="Q11">
-        <v>0.3697593401582223</v>
+        <v>6.094768149969777</v>
       </c>
       <c r="R11">
-        <v>3.327834061424001</v>
+        <v>54.852913349728</v>
       </c>
       <c r="S11">
-        <v>0.02698454003875073</v>
+        <v>0.5364066230662036</v>
       </c>
       <c r="T11">
-        <v>0.02698454003875073</v>
+        <v>0.5364066230662036</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.407124666666667</v>
+        <v>2.751641333333334</v>
       </c>
       <c r="H12">
-        <v>10.221374</v>
+        <v>8.254924000000001</v>
       </c>
       <c r="I12">
-        <v>0.6564322386153376</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="J12">
-        <v>0.6564322386153377</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.214957333333333</v>
+        <v>0.274148</v>
       </c>
       <c r="N12">
-        <v>6.644871999999999</v>
+        <v>0.8224440000000001</v>
       </c>
       <c r="O12">
-        <v>0.8389949644181</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="P12">
-        <v>0.8389949644181001</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="Q12">
-        <v>7.546635766014221</v>
+        <v>0.7543569682506668</v>
       </c>
       <c r="R12">
-        <v>67.919721894128</v>
+        <v>6.789212714256001</v>
       </c>
       <c r="S12">
-        <v>0.5507433426799688</v>
+        <v>0.06639170908048504</v>
       </c>
       <c r="T12">
-        <v>0.5507433426799691</v>
+        <v>0.06639170908048504</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.407124666666667</v>
+        <v>2.751641333333334</v>
       </c>
       <c r="H13">
-        <v>10.221374</v>
+        <v>8.254924000000001</v>
       </c>
       <c r="I13">
-        <v>0.6564322386153376</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="J13">
-        <v>0.6564322386153377</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.31653</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N13">
-        <v>0.9495899999999999</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O13">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696538</v>
       </c>
       <c r="P13">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696536</v>
       </c>
       <c r="Q13">
-        <v>1.07845717074</v>
+        <v>0.0669932943288889</v>
       </c>
       <c r="R13">
-        <v>9.706114536659999</v>
+        <v>0.60293964896</v>
       </c>
       <c r="S13">
-        <v>0.07870435589661798</v>
+        <v>0.005896146644924916</v>
       </c>
       <c r="T13">
-        <v>0.07870435589661799</v>
+        <v>0.005896146644924915</v>
       </c>
     </row>
   </sheetData>
